--- a/Opening Report/大作业组队表.xlsx
+++ b/Opening Report/大作业组队表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93516BEE-6444-4DF6-BBB5-3471D3F9EC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F7961-E5CF-4602-9702-67A6FFC64445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="1185" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>小组号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯大纬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,18 +448,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,31 +473,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>18340040</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -512,7 +520,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -526,7 +534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
